--- a/Update.xlsx
+++ b/Update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashub\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8D1DAD9-5E54-4462-BEA5-FDF215552D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EC3941-9EE1-45D4-8E44-49C07CCE8561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51A15B15-1033-492A-9678-18E7033CBBB2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Array,SS,Tree,Graph</t>
+  </si>
+  <si>
+    <t>Stack</t>
   </si>
 </sst>
 </file>
@@ -60,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -93,7 +96,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CAD696-7787-48F3-8235-C751FC9D7D41}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,13 +448,30 @@
         <v>44706</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>3</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
